--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H2">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I2">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J2">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>709.5484004972882</v>
+        <v>1106.291454513708</v>
       </c>
       <c r="R2">
-        <v>709.5484004972882</v>
+        <v>9956.623090623378</v>
       </c>
       <c r="S2">
-        <v>0.2161313914920226</v>
+        <v>0.2710000185963509</v>
       </c>
       <c r="T2">
-        <v>0.2161313914920226</v>
+        <v>0.2710000185963509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H3">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I3">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J3">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>617.2989595202893</v>
+        <v>898.9597247272388</v>
       </c>
       <c r="R3">
-        <v>617.2989595202893</v>
+        <v>8090.63752254515</v>
       </c>
       <c r="S3">
-        <v>0.1880318284054926</v>
+        <v>0.22021150134034</v>
       </c>
       <c r="T3">
-        <v>0.1880318284054926</v>
+        <v>0.22021150134034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H4">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I4">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J4">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>89.6071207082675</v>
+        <v>133.9715797142059</v>
       </c>
       <c r="R4">
-        <v>89.6071207082675</v>
+        <v>1205.744217427853</v>
       </c>
       <c r="S4">
-        <v>0.02729470135187135</v>
+        <v>0.0328180249841046</v>
       </c>
       <c r="T4">
-        <v>0.02729470135187135</v>
+        <v>0.03281802498410459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H5">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I5">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J5">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>711.3910721816976</v>
+        <v>764.4763398601631</v>
       </c>
       <c r="R5">
-        <v>711.3910721816976</v>
+        <v>6880.287058741468</v>
       </c>
       <c r="S5">
-        <v>0.216692676944763</v>
+        <v>0.187268103241059</v>
       </c>
       <c r="T5">
-        <v>0.216692676944763</v>
+        <v>0.187268103241059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H6">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I6">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J6">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>618.9020627232931</v>
+        <v>621.2046899912699</v>
       </c>
       <c r="R6">
-        <v>618.9020627232931</v>
+        <v>5590.842209921429</v>
       </c>
       <c r="S6">
-        <v>0.1885201403032119</v>
+        <v>0.1521719089964176</v>
       </c>
       <c r="T6">
-        <v>0.1885201403032119</v>
+        <v>0.1521719089964176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H7">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I7">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J7">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>89.83982717893934</v>
+        <v>92.57786678847665</v>
       </c>
       <c r="R7">
-        <v>89.83982717893934</v>
+        <v>833.2008010962899</v>
       </c>
       <c r="S7">
-        <v>0.02736558470990619</v>
+        <v>0.0226781139083424</v>
       </c>
       <c r="T7">
-        <v>0.02736558470990619</v>
+        <v>0.02267811390834239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H8">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I8">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J8">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>223.5972609209587</v>
+        <v>240.3564069932843</v>
       </c>
       <c r="R8">
-        <v>223.5972609209587</v>
+        <v>2163.207662939559</v>
       </c>
       <c r="S8">
-        <v>0.06810865488919715</v>
+        <v>0.05887832767682739</v>
       </c>
       <c r="T8">
-        <v>0.06810865488919715</v>
+        <v>0.0588783276768274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H9">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I9">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J9">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>194.527049065798</v>
+        <v>195.310854644619</v>
       </c>
       <c r="R9">
-        <v>194.527049065798</v>
+        <v>1757.797691801571</v>
       </c>
       <c r="S9">
-        <v>0.059253747549796</v>
+        <v>0.04784385256236747</v>
       </c>
       <c r="T9">
-        <v>0.059253747549796</v>
+        <v>0.04784385256236747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H10">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I10">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J10">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>28.23754762231883</v>
+        <v>29.10709235612367</v>
       </c>
       <c r="R10">
-        <v>28.23754762231883</v>
+        <v>261.963831205113</v>
       </c>
       <c r="S10">
-        <v>0.008601274353739237</v>
+        <v>0.007130148694190671</v>
       </c>
       <c r="T10">
-        <v>0.008601274353739237</v>
+        <v>0.00713014869419067</v>
       </c>
     </row>
   </sheetData>
